--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larakamal/Desktop/AGNs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0254C3-30B2-F94A-8AA7-9A2E424F7337}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD351CD-7D80-5447-8651-4C91E3DC9A6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{A858250F-B514-6D4D-91F7-9419A4BAFCED}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,6 +515,12 @@
       <c r="B8">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larakamal/Desktop/AGNs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD351CD-7D80-5447-8651-4C91E3DC9A6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC008396-CD78-5E47-A16B-2347A2FDEA7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{A858250F-B514-6D4D-91F7-9419A4BAFCED}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Wednesday 5/29</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>Monday 6/10</t>
+  </si>
+  <si>
+    <t>Monday 6/17</t>
+  </si>
+  <si>
+    <t>Tuesday 6/18</t>
+  </si>
+  <si>
+    <t>Wednesday 6/19</t>
+  </si>
+  <si>
+    <t>Thursday 6/20</t>
+  </si>
+  <si>
+    <t>Friday 6/21</t>
+  </si>
+  <si>
+    <t>Wednesday 6/12</t>
+  </si>
+  <si>
+    <t>Thursday 6/13</t>
+  </si>
+  <si>
+    <t>Friday 6/14</t>
   </si>
 </sst>
 </file>
@@ -73,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF52E21C-4B69-A247-BA95-B9DFCC33C958}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,7 +454,7 @@
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -440,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -457,41 +488,41 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -499,16 +530,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -520,6 +551,29 @@
       </c>
       <c r="D8">
         <v>9</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larakamal/Desktop/AGNs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC008396-CD78-5E47-A16B-2347A2FDEA7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CBBFD0-7989-E141-99DA-973BF0CDDAE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{A858250F-B514-6D4D-91F7-9419A4BAFCED}"/>
+    <workbookView minimized="1" xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{A858250F-B514-6D4D-91F7-9419A4BAFCED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF52E21C-4B69-A247-BA95-B9DFCC33C958}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,6 +576,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
